--- a/undangan.xlsx
+++ b/undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Documents\Undangan Digital Whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BEB143-5D4B-4D31-9CC2-594AAA140058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58406566-7DC3-4905-BC70-53AD44FCAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nama Teman</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>undangan.upservicesjkt.my.id/to</t>
+  </si>
+  <si>
+    <t>aldo</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,19 +179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -202,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,9 +206,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -348,7 +337,10 @@
     <tableColumn id="1" xr3:uid="{1B81A1C1-4113-4C97-AD7D-4C7C5E63DF42}" name="Nama Teman" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{47636805-C506-4E6C-9F48-9B1A69A62983}" name="Pasangan" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{838B9450-9ADD-4D77-88EF-F3722A940ED1}" name="Link Undangan" dataDxfId="1">
-      <calculatedColumnFormula>HYPERLINK($K$3 &amp; SUBSTITUTE(A2, " ", "%20") &amp; "%20and%20" &amp; SUBSTITUTE(B2, " ", "%20"),$H$4 &amp; A2 &amp; " and " &amp; B2)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(B2="",
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A2, " ", "%20"), $H$4 &amp; A2),
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A2, " ", "%20") &amp; "%20dan%20" &amp; SUBSTITUTE(B2, " ", "%20"), $H$4 &amp; A2 &amp; " dan " &amp; B2)
+)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{ED75C32E-726C-4002-9D0F-4E5DEC3EA48F}" name="Nomer Whatsapp" dataDxfId="0"/>
   </tableColumns>
@@ -557,7 +549,7 @@
   <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D39"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,22 +578,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="6" t="str">
-        <f>HYPERLINK($K$3 &amp; SUBSTITUTE(A2, " ", "%20") &amp; "%20dan%20" &amp; SUBSTITUTE(B2, " ", "%20"),$H$4 &amp; A2 &amp; " dan " &amp; B2)</f>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <f>IF(B2="",
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A2, " ", "%20"), $H$4 &amp; A2),
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A2, " ", "%20") &amp; "%20dan%20" &amp; SUBSTITUTE(B2, " ", "%20"), $H$4 &amp; A2 &amp; " dan " &amp; B2)
+)</f>
+        <v>undangan.upservicesjkt.my.id/toaldo</v>
       </c>
       <c r="D2" s="3">
-        <v>62</v>
+        <v>625774946542</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C38" si="0">HYPERLINK($K$3 &amp; SUBSTITUTE(A3, " ", "%20") &amp; "%20dan%20" &amp; SUBSTITUTE(B3, " ", "%20"),$H$4 &amp; A3 &amp; " dan " &amp; B3)</f>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <f t="shared" ref="C3:C38" si="0">IF(B3="",
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A3, " ", "%20"), $H$4 &amp; A3),
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A3, " ", "%20") &amp; "%20dan%20" &amp; SUBSTITUTE(B3, " ", "%20"), $H$4 &amp; A3 &amp; " dan " &amp; B3)
+)</f>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D3" s="3">
         <v>62</v>
@@ -615,12 +615,12 @@
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D4" s="3">
         <v>62</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D5" s="3">
         <v>62</v>
@@ -640,7 +640,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D6" s="3">
         <v>62</v>
@@ -651,7 +651,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D7" s="3">
         <v>62</v>
@@ -662,7 +662,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D8" s="3">
         <v>62</v>
@@ -673,7 +673,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D9" s="3">
         <v>62</v>
@@ -684,7 +684,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D10" s="3">
         <v>62</v>
@@ -695,7 +695,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D11" s="3">
         <v>62</v>
@@ -706,7 +706,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D12" s="3">
         <v>62</v>
@@ -717,7 +717,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D13" s="3">
         <v>62</v>
@@ -728,7 +728,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D14" s="3">
         <v>62</v>
@@ -739,7 +739,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D15" s="3">
         <v>62</v>
@@ -750,7 +750,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D16" s="3">
         <v>62</v>
@@ -761,7 +761,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D17" s="3">
         <v>62</v>
@@ -772,7 +772,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D18" s="3">
         <v>62</v>
@@ -783,7 +783,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D19" s="3">
         <v>62</v>
@@ -794,7 +794,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D20" s="3">
         <v>62</v>
@@ -805,7 +805,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D21" s="3">
         <v>62</v>
@@ -816,7 +816,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D22" s="3">
         <v>62</v>
@@ -827,7 +827,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D23" s="3">
         <v>62</v>
@@ -838,7 +838,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D24" s="3">
         <v>62</v>
@@ -849,7 +849,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D25" s="3">
         <v>62</v>
@@ -860,7 +860,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D26" s="3">
         <v>62</v>
@@ -871,7 +871,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D27" s="3">
         <v>62</v>
@@ -882,7 +882,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D28" s="3">
         <v>62</v>
@@ -893,7 +893,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D29" s="3">
         <v>62</v>
@@ -904,7 +904,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D30" s="3">
         <v>62</v>
@@ -915,7 +915,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D31" s="3">
         <v>62</v>
@@ -926,7 +926,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D32" s="3">
         <v>62</v>
@@ -937,7 +937,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D33" s="3">
         <v>62</v>
@@ -948,18 +948,18 @@
       <c r="B34" s="8"/>
       <c r="C34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D34" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="8"/>
       <c r="C35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D35" s="3">
         <v>62</v>
@@ -970,18 +970,18 @@
       <c r="B36" s="8"/>
       <c r="C36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D36" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D37" s="3">
         <v>62</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">undangan.upservicesjkt.my.id/to dan </v>
+        <v>undangan.upservicesjkt.my.id/to</v>
       </c>
       <c r="D38" s="3">
         <v>62</v>
@@ -1001,7 +1001,13 @@
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="6" t="str">
+        <f>IF(B39="",
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A39, " ", "%20"), $H$4 &amp; A39),
+    HYPERLINK($K$3 &amp; SUBSTITUTE(A39, " ", "%20") &amp; "%20dan%20" &amp; SUBSTITUTE(B39, " ", "%20"), $H$4 &amp; A39 &amp; " dan " &amp; B39)
+)</f>
+        <v>undangan.upservicesjkt.my.id/to</v>
+      </c>
       <c r="D39" s="3">
         <v>62</v>
       </c>
